--- a/data/Precios Gasolinas.xlsx
+++ b/data/Precios Gasolinas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6672f4cd2104aeb4/Documentos/Proyectos-Programas/oSoC/habitos2030/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{42D0B888-2AE6-4B40-ADD0-C2360CA47D7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{EF9BE950-B7AD-491B-B273-2D8662066F77}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{42D0B888-2AE6-4B40-ADD0-C2360CA47D7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{ACEC0281-936D-46DF-A006-44D4C556F4E6}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{549B4037-BD28-4A85-BD0D-3E10DC674630}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{549B4037-BD28-4A85-BD0D-3E10DC674630}"/>
   </bookViews>
   <sheets>
     <sheet name="Precios Gasolina" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Precios al consumidor de productos petrolíferos España</t>
   </si>
@@ -65,6 +65,12 @@
   </si>
   <si>
     <t>"workingfromhome"</t>
+  </si>
+  <si>
+    <t>"cuarentena"</t>
+  </si>
+  <si>
+    <t>"CuandoEstoSeAcabe"</t>
   </si>
 </sst>
 </file>
@@ -6791,364 +6797,364 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="159"/>
                 <c:pt idx="0">
-                  <c:v>43862.975844907407</c:v>
+                  <c:v>43862</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43863.906585648147</c:v>
+                  <c:v>43863</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43864.879293981481</c:v>
+                  <c:v>43864</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43865.92386574074</c:v>
+                  <c:v>43865</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43866.940185185187</c:v>
+                  <c:v>43866</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43867.967627314814</c:v>
+                  <c:v>43867</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43868.84716435185</c:v>
+                  <c:v>43868</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43869.997847222221</c:v>
+                  <c:v>43869</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43870.957604166666</c:v>
+                  <c:v>43870</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43871.857835648145</c:v>
+                  <c:v>43871</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43872.929270833331</c:v>
+                  <c:v>43872</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43873.878703703704</c:v>
+                  <c:v>43873</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43874.974583333336</c:v>
+                  <c:v>43874</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43875.985925925925</c:v>
+                  <c:v>43875</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43876.902951388889</c:v>
+                  <c:v>43876</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>43877.916805555556</c:v>
+                  <c:v>43877</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>43878.995856481481</c:v>
+                  <c:v>43878</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>43879.93240740741</c:v>
+                  <c:v>43879</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>43880.731979166667</c:v>
+                  <c:v>43880</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>43881.895486111112</c:v>
+                  <c:v>43881</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>43882.976423611108</c:v>
+                  <c:v>43882</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>43883.958333333336</c:v>
+                  <c:v>43883</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>43884.919444444444</c:v>
+                  <c:v>43884</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>43885.952384259261</c:v>
+                  <c:v>43885</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>43886.952187499999</c:v>
+                  <c:v>43886</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>43887.913715277777</c:v>
+                  <c:v>43887</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>43888.873333333337</c:v>
+                  <c:v>43888</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>43889.936990740738</c:v>
+                  <c:v>43889</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>43890.887499999997</c:v>
+                  <c:v>43890</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>43891.961747685185</c:v>
+                  <c:v>43891</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>43892.914907407408</c:v>
+                  <c:v>43892</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>43893.919305555559</c:v>
+                  <c:v>43893</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>43894.921539351853</c:v>
+                  <c:v>43894</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>43895.96707175926</c:v>
+                  <c:v>43895</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>43896.950312499997</c:v>
+                  <c:v>43896</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>43897.858263888891</c:v>
+                  <c:v>43897</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>43898.927453703705</c:v>
+                  <c:v>43898</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>43899.992534722223</c:v>
+                  <c:v>43899</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>43900.968541666669</c:v>
+                  <c:v>43900</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>43901.990567129629</c:v>
+                  <c:v>43901</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>43902.988194444442</c:v>
+                  <c:v>43902</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>43903.99722222222</c:v>
+                  <c:v>43903</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>43904.97996527778</c:v>
+                  <c:v>43904</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>43905.979201388887</c:v>
+                  <c:v>43905</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>43906.995925925927</c:v>
+                  <c:v>43906</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>43907.994606481479</c:v>
+                  <c:v>43907</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>43908.991990740738</c:v>
+                  <c:v>43908</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>43909.993171296293</c:v>
+                  <c:v>43909</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>43910.989212962966</c:v>
+                  <c:v>43910</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>43911.987569444442</c:v>
+                  <c:v>43911</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>43912.973819444444</c:v>
+                  <c:v>43912</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>43913.998611111114</c:v>
+                  <c:v>43913</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>43914.997442129628</c:v>
+                  <c:v>43914</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>43915.988599537035</c:v>
+                  <c:v>43915</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>43916.992326388892</c:v>
+                  <c:v>43916</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>43917.992546296293</c:v>
+                  <c:v>43917</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>43918.982627314814</c:v>
+                  <c:v>43918</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>43919.982187499998</c:v>
+                  <c:v>43919</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>43920.967256944445</c:v>
+                  <c:v>43920</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>43921.980393518519</c:v>
+                  <c:v>43921</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>43922.998518518521</c:v>
+                  <c:v>43922</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>43923.986886574072</c:v>
+                  <c:v>43923</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>43924.985578703701</c:v>
+                  <c:v>43924</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>43925.866331018522</c:v>
+                  <c:v>43925</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>43926.980451388888</c:v>
+                  <c:v>43926</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>43927.983171296299</c:v>
+                  <c:v>43927</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>43928.973495370374</c:v>
+                  <c:v>43928</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>43929.999652777777</c:v>
+                  <c:v>43929</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>43930.992442129631</c:v>
+                  <c:v>43930</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>43931.928020833337</c:v>
+                  <c:v>43931</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>43932.948240740741</c:v>
+                  <c:v>43932</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>43933.988287037035</c:v>
+                  <c:v>43933</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>43934.993877314817</c:v>
+                  <c:v>43934</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>43935.983368055553</c:v>
+                  <c:v>43935</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>43936.968611111108</c:v>
+                  <c:v>43936</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>43937.973078703704</c:v>
+                  <c:v>43937</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>43938.984548611108</c:v>
+                  <c:v>43938</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>43939.992974537039</c:v>
+                  <c:v>43939</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>43940.982268518521</c:v>
+                  <c:v>43940</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>43941.994155092594</c:v>
+                  <c:v>43941</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>43942.992534722223</c:v>
+                  <c:v>43942</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>43943.984710648147</c:v>
+                  <c:v>43943</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>43944.963692129626</c:v>
+                  <c:v>43944</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>43945.983726851853</c:v>
+                  <c:v>43945</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>43946.980520833335</c:v>
+                  <c:v>43946</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>43947.867824074077</c:v>
+                  <c:v>43947</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>43948.95548611111</c:v>
+                  <c:v>43948</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>43949.994351851848</c:v>
+                  <c:v>43949</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>43950.999166666668</c:v>
+                  <c:v>43950</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>43951.975995370369</c:v>
+                  <c:v>43951</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>43952.969340277778</c:v>
+                  <c:v>43952</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>43953.995381944442</c:v>
+                  <c:v>43953</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>43954.989918981482</c:v>
+                  <c:v>43954</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>43955.996793981481</c:v>
+                  <c:v>43955</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>43956.983113425929</c:v>
+                  <c:v>43956</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>43957.998692129629</c:v>
+                  <c:v>43957</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>43958.995011574072</c:v>
+                  <c:v>43958</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>43959.977326388886</c:v>
+                  <c:v>43959</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>43960.99417824074</c:v>
+                  <c:v>43960</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>43961.996666666666</c:v>
+                  <c:v>43961</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>43962.982731481483</c:v>
+                  <c:v>43962</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>43963.956076388888</c:v>
+                  <c:v>43963</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>43964.947858796295</c:v>
+                  <c:v>43964</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>43965.853842592594</c:v>
+                  <c:v>43965</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>43966.965277777781</c:v>
+                  <c:v>43966</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>43967.851203703707</c:v>
+                  <c:v>43967</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>43968.911111111112</c:v>
+                  <c:v>43968</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>43969.994826388887</c:v>
+                  <c:v>43969</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>43970.994108796294</c:v>
+                  <c:v>43970</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>43971.989675925928</c:v>
+                  <c:v>43971</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>43972.996180555558</c:v>
+                  <c:v>43972</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>43973.95784722222</c:v>
+                  <c:v>43973</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>43974.99459490741</c:v>
+                  <c:v>43974</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>43975.993877314817</c:v>
+                  <c:v>43975</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>43976.944409722222</c:v>
+                  <c:v>43976</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>43977.990011574075</c:v>
+                  <c:v>43977</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>43978.98369212963</c:v>
+                  <c:v>43978</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>43979.980949074074</c:v>
+                  <c:v>43979</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>43980.982847222222</c:v>
+                  <c:v>43980</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>43981.982743055552</c:v>
+                  <c:v>43981</c:v>
                 </c:pt>
                 <c:pt idx="120">
                   <c:v>43982.954872685186</c:v>
@@ -7349,7 +7355,7 @@
                   <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>38</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>59</c:v>
@@ -7358,13 +7364,13 @@
                   <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>42</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>43</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>52</c:v>
@@ -7388,28 +7394,28 @@
                   <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>82</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>119</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>126</c:v>
+                  <c:v>131</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>180</c:v>
+                  <c:v>184</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>185</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>145</c:v>
+                  <c:v>146</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>124</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>278</c:v>
+                  <c:v>279</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>240</c:v>
@@ -7430,10 +7436,10 @@
                   <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>140</c:v>
+                  <c:v>141</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>180</c:v>
+                  <c:v>181</c:v>
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>145</c:v>
@@ -7442,13 +7448,13 @@
                   <c:v>144</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>134</c:v>
+                  <c:v>136</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>103</c:v>
+                  <c:v>104</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>94</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>121</c:v>
@@ -7463,16 +7469,16 @@
                   <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>111</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>71</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>100</c:v>
+                  <c:v>102</c:v>
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>102</c:v>
@@ -7484,19 +7490,19 @@
                   <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>76</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>61</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="71">
                   <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>98</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>105</c:v>
+                  <c:v>106</c:v>
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>105</c:v>
@@ -7505,10 +7511,10 @@
                   <c:v>102</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>102</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>77</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>80</c:v>
@@ -7517,7 +7523,7 @@
                   <c:v>119</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>124</c:v>
+                  <c:v>126</c:v>
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>101</c:v>
@@ -7529,19 +7535,19 @@
                   <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>80</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>59</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="86">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="87">
                   <c:v>102</c:v>
                 </c:pt>
-                <c:pt idx="87">
-                  <c:v>100</c:v>
-                </c:pt>
                 <c:pt idx="88">
-                  <c:v>89</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>89</c:v>
@@ -7550,58 +7556,58 @@
                   <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>56</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>56</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="93">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="95">
                   <c:v>107</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>106</c:v>
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>98</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>68</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>65</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>88</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>94</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>65</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>58</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>71</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="107">
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>80</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="109">
                   <c:v>100</c:v>
@@ -7610,7 +7616,7 @@
                   <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>80</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="112">
                   <c:v>56</c:v>
@@ -7631,7 +7637,7 @@
                   <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>82</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="119">
                   <c:v>52</c:v>
@@ -7758,7 +7764,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-94FB-48D8-A35F-911A802D623E}"/>
+              <c16:uniqueId val="{00000000-6C26-4AAA-B4EC-2174FD7151BC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7772,11 +7778,11 @@
         </c:dLbls>
         <c:gapWidth val="315"/>
         <c:overlap val="-40"/>
-        <c:axId val="131681647"/>
-        <c:axId val="1993995167"/>
+        <c:axId val="481951743"/>
+        <c:axId val="906562575"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="131681647"/>
+        <c:axId val="481951743"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7812,14 +7818,14 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1993995167"/>
+        <c:crossAx val="906562575"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1993995167"/>
+        <c:axId val="906562575"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7880,7 +7886,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="131681647"/>
+        <c:crossAx val="481951743"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8018,7 +8024,7 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="125"/>
                 <c:pt idx="0">
-                  <c:v>43862.975844907407</c:v>
+                  <c:v>43862</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>43872</c:v>
@@ -8781,7 +8787,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-23B1-499A-91CF-A365E9F6E470}"/>
+              <c16:uniqueId val="{00000000-AAD5-484D-B469-BF68AA99E78E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8795,11 +8801,11 @@
         </c:dLbls>
         <c:gapWidth val="315"/>
         <c:overlap val="-40"/>
-        <c:axId val="143459919"/>
-        <c:axId val="183180543"/>
+        <c:axId val="898286095"/>
+        <c:axId val="657752367"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="143459919"/>
+        <c:axId val="898286095"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8835,14 +8841,14 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="183180543"/>
+        <c:crossAx val="657752367"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="183180543"/>
+        <c:axId val="657752367"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8903,7 +8909,1687 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="143459919"/>
+        <c:crossAx val="898286095"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>TweetCounts!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="63500">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="25000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>TweetCounts!$G$2:$G$121</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="120"/>
+                <c:pt idx="0">
+                  <c:v>43862</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43863</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43864</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43865</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43866</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43867</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43868</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43869</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43870</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43871</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43872</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43873</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43874</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43875</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43876</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43877</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43878</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43879</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43880</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43881</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43882</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43883</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43884</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43885</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43886</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43887</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43888</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43889</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43890</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43891</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43892</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43893</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43894</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43895</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43896</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43897</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43898</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43899</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43900</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43901</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43902</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43903</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43904</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43905</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43906</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43907</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>43908</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>43909</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>43910</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>43911</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>43912</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>43913</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>43914</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>43915</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>43916</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>43917</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>43918</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>43919</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>43920</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>43923</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>43924</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>43925</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>43926</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>43928</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>43929</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>43930</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>43931</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>43932</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>43933</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>43934</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>43935</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>43936</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>43937</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>43938</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>43939</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>43940</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>43941</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>43942</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>43943</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>43944</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>43945</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>43946</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>43947</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>43948</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>43949</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>43950</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>43951</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>43952</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>43953</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>43954</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>43955</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>43956</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>43957</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>43958</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>43959</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>43960</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>43961</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>43962</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>43963</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>43964</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>43965</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>43966</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>43967</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>43968</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>43969</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>43970</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>43971</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>43972</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>43973</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>43974</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>43975</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>43976</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>43977</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>43978</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>43979</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>43980</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>43981</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>TweetCounts!$H$2:$H$121</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="120"/>
+                <c:pt idx="0">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>304</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>581</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1008</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1007</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1009</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1017</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1018</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1016</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1016</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1014</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1011</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1010</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1011</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1009</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1010</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1027</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1018</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1016</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1013</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1018</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1016</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1019</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1013</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1011</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1017</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1017</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1009</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1012</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1009</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1012</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1016</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1012</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1011</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1015</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1021</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1012</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1012</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1014</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1014</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1017</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1009</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1014</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1009</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1017</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1026</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1015</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1013</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1019</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1005</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1011</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1009</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1015</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1006</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1012</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1010</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1006</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1005</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1015</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1007</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1006</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1005</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1005</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1006</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1016</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1005</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1008</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1002</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1004</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1003</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1010</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1009</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1008</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1004</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FC60-49D5-B8C8-8B08B12AB4EF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="315"/>
+        <c:overlap val="-40"/>
+        <c:axId val="910914799"/>
+        <c:axId val="657744047"/>
+      </c:barChart>
+      <c:dateAx>
+        <c:axId val="910914799"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="657744047"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="657744047"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="910914799"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>TweetCounts!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="63500">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="25000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>TweetCounts!$J$2:$J$70</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="69"/>
+                <c:pt idx="0">
+                  <c:v>43862</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43907</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43908</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43909</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43910</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43911</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43912</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43913</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43914</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43915</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43917</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43918</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43919</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43920</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43923</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43924</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43925</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43926</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43929</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43930</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43931</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43932</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43933</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43934</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43935</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43936</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43937</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43938</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43939</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43941</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43942</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43943</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43944</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43945</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43946</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43947</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43948</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43949</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43950</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43951</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43953</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43954</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43955</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>43956</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>43957</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>43958</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>43959</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>43960</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>43961</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>43962</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>43963</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>43965</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>43966</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>43967</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>43968</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>43969</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>43970</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>43971</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>43972</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>43973</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>43974</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>43975</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>43977</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>43978</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>43979</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>43980</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>TweetCounts!$K$2:$K$70</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="69"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6CCB-459C-96DB-B4A93D7255B1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="315"/>
+        <c:overlap val="-40"/>
+        <c:axId val="970491583"/>
+        <c:axId val="897054415"/>
+      </c:barChart>
+      <c:dateAx>
+        <c:axId val="970491583"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="897054415"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="897054415"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="970491583"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9076,6 +10762,86 @@
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -11311,6 +13077,1104 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="213">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="213">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -11392,23 +14256,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>415635</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>83127</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>415636</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>34636</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1">
+        <xdr:cNvPr id="3" name="Gráfico 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{121BE037-DECA-45A2-B449-AC6E1823BEBC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25683921-D68E-4E82-903D-2AE2E8FF65BB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11428,23 +14292,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>341778</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>1121</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>415635</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>65810</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>627529</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>363681</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>173182</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Gráfico 3">
+        <xdr:cNvPr id="5" name="Gráfico 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44E12228-FB48-4CFB-ABB1-8E387DDC468E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD369DB7-EA0C-4257-88EB-1320BDC688F5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11457,6 +14321,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>363681</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>48491</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>294409</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>121227</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Gráfico 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{325C51A5-2D7B-4692-BDAE-D00B18CE091B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>311726</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>225136</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>173182</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Gráfico 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49989BC7-B7FC-4E09-B562-94BE9129C968}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -14598,10 +17534,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EA0A446-908A-4F92-B0D2-FDC964A3257A}">
-  <dimension ref="A1:E160"/>
+  <dimension ref="A1:K160"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E1"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AG59" sqref="AG59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14610,7 +17546,7 @@
     <col min="4" max="4" width="11.42578125" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>9</v>
       </c>
@@ -14619,24 +17555,44 @@
         <v>10</v>
       </c>
       <c r="E1" s="25"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G1" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="25"/>
+      <c r="J1" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="25"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="24">
-        <v>43862.975844907407</v>
+        <v>43862</v>
       </c>
       <c r="B2">
         <v>28</v>
       </c>
       <c r="D2" s="24">
-        <v>43862.975844907407</v>
+        <v>43862</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G2" s="24">
+        <v>43862</v>
+      </c>
+      <c r="H2">
+        <v>79</v>
+      </c>
+      <c r="J2" s="24">
+        <v>43862</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="24">
-        <v>43863.906585648147</v>
+        <v>43863</v>
       </c>
       <c r="B3">
         <v>21</v>
@@ -14647,10 +17603,22 @@
       <c r="E3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G3" s="24">
+        <v>43863</v>
+      </c>
+      <c r="H3">
+        <v>69</v>
+      </c>
+      <c r="J3" s="24">
+        <v>43907</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="24">
-        <v>43864.879293981481</v>
+        <v>43864</v>
       </c>
       <c r="B4">
         <v>38</v>
@@ -14661,10 +17629,22 @@
       <c r="E4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G4" s="24">
+        <v>43864</v>
+      </c>
+      <c r="H4">
+        <v>64</v>
+      </c>
+      <c r="J4" s="24">
+        <v>43908</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="24">
-        <v>43865.92386574074</v>
+        <v>43865</v>
       </c>
       <c r="B5">
         <v>58</v>
@@ -14675,10 +17655,22 @@
       <c r="E5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G5" s="24">
+        <v>43865</v>
+      </c>
+      <c r="H5">
+        <v>75</v>
+      </c>
+      <c r="J5" s="24">
+        <v>43909</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="24">
-        <v>43866.940185185187</v>
+        <v>43866</v>
       </c>
       <c r="B6">
         <v>50</v>
@@ -14689,10 +17681,22 @@
       <c r="E6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G6" s="24">
+        <v>43866</v>
+      </c>
+      <c r="H6">
+        <v>65</v>
+      </c>
+      <c r="J6" s="24">
+        <v>43910</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="24">
-        <v>43867.967627314814</v>
+        <v>43867</v>
       </c>
       <c r="B7">
         <v>45</v>
@@ -14703,10 +17707,22 @@
       <c r="E7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G7" s="24">
+        <v>43867</v>
+      </c>
+      <c r="H7">
+        <v>85</v>
+      </c>
+      <c r="J7" s="24">
+        <v>43911</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="24">
-        <v>43868.84716435185</v>
+        <v>43868</v>
       </c>
       <c r="B8">
         <v>45</v>
@@ -14717,10 +17733,22 @@
       <c r="E8">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G8" s="24">
+        <v>43868</v>
+      </c>
+      <c r="H8">
+        <v>75</v>
+      </c>
+      <c r="J8" s="24">
+        <v>43912</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="24">
-        <v>43869.997847222221</v>
+        <v>43869</v>
       </c>
       <c r="B9">
         <v>26</v>
@@ -14731,10 +17759,22 @@
       <c r="E9">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G9" s="24">
+        <v>43869</v>
+      </c>
+      <c r="H9">
+        <v>51</v>
+      </c>
+      <c r="J9" s="24">
+        <v>43913</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="24">
-        <v>43870.957604166666</v>
+        <v>43870</v>
       </c>
       <c r="B10">
         <v>28</v>
@@ -14745,10 +17785,22 @@
       <c r="E10">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G10" s="24">
+        <v>43870</v>
+      </c>
+      <c r="H10">
+        <v>60</v>
+      </c>
+      <c r="J10" s="24">
+        <v>43914</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="24">
-        <v>43871.857835648145</v>
+        <v>43871</v>
       </c>
       <c r="B11">
         <v>50</v>
@@ -14759,10 +17811,22 @@
       <c r="E11">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G11" s="24">
+        <v>43871</v>
+      </c>
+      <c r="H11">
+        <v>79</v>
+      </c>
+      <c r="J11" s="24">
+        <v>43915</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="24">
-        <v>43872.929270833331</v>
+        <v>43872</v>
       </c>
       <c r="B12">
         <v>44</v>
@@ -14773,10 +17837,22 @@
       <c r="E12">
         <v>15</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G12" s="24">
+        <v>43872</v>
+      </c>
+      <c r="H12">
+        <v>63</v>
+      </c>
+      <c r="J12" s="24">
+        <v>43917</v>
+      </c>
+      <c r="K12">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="24">
-        <v>43873.878703703704</v>
+        <v>43873</v>
       </c>
       <c r="B13">
         <v>41</v>
@@ -14787,10 +17863,22 @@
       <c r="E13">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G13" s="24">
+        <v>43873</v>
+      </c>
+      <c r="H13">
+        <v>58</v>
+      </c>
+      <c r="J13" s="24">
+        <v>43918</v>
+      </c>
+      <c r="K13">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="24">
-        <v>43874.974583333336</v>
+        <v>43874</v>
       </c>
       <c r="B14">
         <v>42</v>
@@ -14801,10 +17889,22 @@
       <c r="E14">
         <v>29</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G14" s="24">
+        <v>43874</v>
+      </c>
+      <c r="H14">
+        <v>59</v>
+      </c>
+      <c r="J14" s="24">
+        <v>43919</v>
+      </c>
+      <c r="K14">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="24">
-        <v>43875.985925925925</v>
+        <v>43875</v>
       </c>
       <c r="B15">
         <v>39</v>
@@ -14815,10 +17915,22 @@
       <c r="E15">
         <v>40</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G15" s="24">
+        <v>43875</v>
+      </c>
+      <c r="H15">
+        <v>58</v>
+      </c>
+      <c r="J15" s="24">
+        <v>43920</v>
+      </c>
+      <c r="K15">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="24">
-        <v>43876.902951388889</v>
+        <v>43876</v>
       </c>
       <c r="B16">
         <v>27</v>
@@ -14829,10 +17941,22 @@
       <c r="E16">
         <v>43</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G16" s="24">
+        <v>43876</v>
+      </c>
+      <c r="H16">
+        <v>59</v>
+      </c>
+      <c r="J16" s="24">
+        <v>43921</v>
+      </c>
+      <c r="K16">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="24">
-        <v>43877.916805555556</v>
+        <v>43877</v>
       </c>
       <c r="B17">
         <v>38</v>
@@ -14843,10 +17967,22 @@
       <c r="E17">
         <v>40</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G17" s="24">
+        <v>43877</v>
+      </c>
+      <c r="H17">
+        <v>63</v>
+      </c>
+      <c r="J17" s="24">
+        <v>43922</v>
+      </c>
+      <c r="K17">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="24">
-        <v>43878.995856481481</v>
+        <v>43878</v>
       </c>
       <c r="B18">
         <v>52</v>
@@ -14857,10 +17993,22 @@
       <c r="E18">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G18" s="24">
+        <v>43878</v>
+      </c>
+      <c r="H18">
+        <v>60</v>
+      </c>
+      <c r="J18" s="24">
+        <v>43923</v>
+      </c>
+      <c r="K18">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="24">
-        <v>43879.93240740741</v>
+        <v>43879</v>
       </c>
       <c r="B19">
         <v>40</v>
@@ -14871,10 +18019,22 @@
       <c r="E19">
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G19" s="24">
+        <v>43879</v>
+      </c>
+      <c r="H19">
+        <v>71</v>
+      </c>
+      <c r="J19" s="24">
+        <v>43924</v>
+      </c>
+      <c r="K19">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="24">
-        <v>43880.731979166667</v>
+        <v>43880</v>
       </c>
       <c r="B20">
         <v>57</v>
@@ -14885,10 +18045,22 @@
       <c r="E20">
         <v>11</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G20" s="24">
+        <v>43880</v>
+      </c>
+      <c r="H20">
+        <v>65</v>
+      </c>
+      <c r="J20" s="24">
+        <v>43925</v>
+      </c>
+      <c r="K20">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="24">
-        <v>43881.895486111112</v>
+        <v>43881</v>
       </c>
       <c r="B21">
         <v>45</v>
@@ -14899,10 +18071,22 @@
       <c r="E21">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G21" s="24">
+        <v>43881</v>
+      </c>
+      <c r="H21">
+        <v>57</v>
+      </c>
+      <c r="J21" s="24">
+        <v>43926</v>
+      </c>
+      <c r="K21">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="24">
-        <v>43882.976423611108</v>
+        <v>43882</v>
       </c>
       <c r="B22">
         <v>52</v>
@@ -14913,10 +18097,22 @@
       <c r="E22">
         <v>22</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G22" s="24">
+        <v>43882</v>
+      </c>
+      <c r="H22">
+        <v>55</v>
+      </c>
+      <c r="J22" s="24">
+        <v>43927</v>
+      </c>
+      <c r="K22">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="24">
-        <v>43883.958333333336</v>
+        <v>43883</v>
       </c>
       <c r="B23">
         <v>35</v>
@@ -14927,10 +18123,22 @@
       <c r="E23">
         <v>17</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G23" s="24">
+        <v>43883</v>
+      </c>
+      <c r="H23">
+        <v>59</v>
+      </c>
+      <c r="J23" s="24">
+        <v>43929</v>
+      </c>
+      <c r="K23">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="24">
-        <v>43884.919444444444</v>
+        <v>43884</v>
       </c>
       <c r="B24">
         <v>40</v>
@@ -14941,10 +18149,22 @@
       <c r="E24">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G24" s="24">
+        <v>43884</v>
+      </c>
+      <c r="H24">
+        <v>78</v>
+      </c>
+      <c r="J24" s="24">
+        <v>43930</v>
+      </c>
+      <c r="K24">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="24">
-        <v>43885.952384259261</v>
+        <v>43885</v>
       </c>
       <c r="B25">
         <v>40</v>
@@ -14955,13 +18175,25 @@
       <c r="E25">
         <v>14</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G25" s="24">
+        <v>43885</v>
+      </c>
+      <c r="H25">
+        <v>100</v>
+      </c>
+      <c r="J25" s="24">
+        <v>43931</v>
+      </c>
+      <c r="K25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="24">
-        <v>43886.952187499999</v>
+        <v>43886</v>
       </c>
       <c r="B26">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D26" s="24">
         <v>43918</v>
@@ -14969,10 +18201,22 @@
       <c r="E26">
         <v>10</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G26" s="24">
+        <v>43886</v>
+      </c>
+      <c r="H26">
+        <v>127</v>
+      </c>
+      <c r="J26" s="24">
+        <v>43932</v>
+      </c>
+      <c r="K26">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="24">
-        <v>43887.913715277777</v>
+        <v>43887</v>
       </c>
       <c r="B27">
         <v>59</v>
@@ -14983,10 +18227,22 @@
       <c r="E27">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G27" s="24">
+        <v>43887</v>
+      </c>
+      <c r="H27">
+        <v>128</v>
+      </c>
+      <c r="J27" s="24">
+        <v>43933</v>
+      </c>
+      <c r="K27">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="24">
-        <v>43888.873333333337</v>
+        <v>43888</v>
       </c>
       <c r="B28">
         <v>41</v>
@@ -14997,13 +18253,25 @@
       <c r="E28">
         <v>8</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G28" s="24">
+        <v>43888</v>
+      </c>
+      <c r="H28">
+        <v>100</v>
+      </c>
+      <c r="J28" s="24">
+        <v>43934</v>
+      </c>
+      <c r="K28">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="24">
-        <v>43889.936990740738</v>
+        <v>43889</v>
       </c>
       <c r="B29">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D29" s="24">
         <v>43921</v>
@@ -15011,10 +18279,22 @@
       <c r="E29">
         <v>13</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G29" s="24">
+        <v>43889</v>
+      </c>
+      <c r="H29">
+        <v>123</v>
+      </c>
+      <c r="J29" s="24">
+        <v>43935</v>
+      </c>
+      <c r="K29">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="24">
-        <v>43890.887499999997</v>
+        <v>43890</v>
       </c>
       <c r="B30">
         <v>45</v>
@@ -15025,13 +18305,25 @@
       <c r="E30">
         <v>32</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G30" s="24">
+        <v>43890</v>
+      </c>
+      <c r="H30">
+        <v>99</v>
+      </c>
+      <c r="J30" s="24">
+        <v>43936</v>
+      </c>
+      <c r="K30">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="24">
-        <v>43891.961747685185</v>
+        <v>43891</v>
       </c>
       <c r="B31">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D31" s="24">
         <v>43923</v>
@@ -15039,10 +18331,22 @@
       <c r="E31">
         <v>18</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G31" s="24">
+        <v>43891</v>
+      </c>
+      <c r="H31">
+        <v>88</v>
+      </c>
+      <c r="J31" s="24">
+        <v>43937</v>
+      </c>
+      <c r="K31">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="24">
-        <v>43892.914907407408</v>
+        <v>43892</v>
       </c>
       <c r="B32">
         <v>52</v>
@@ -15053,10 +18357,22 @@
       <c r="E32">
         <v>22</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G32" s="24">
+        <v>43892</v>
+      </c>
+      <c r="H32">
+        <v>93</v>
+      </c>
+      <c r="J32" s="24">
+        <v>43938</v>
+      </c>
+      <c r="K32">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="24">
-        <v>43893.919305555559</v>
+        <v>43893</v>
       </c>
       <c r="B33">
         <v>57</v>
@@ -15067,10 +18383,22 @@
       <c r="E33">
         <v>9</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G33" s="24">
+        <v>43893</v>
+      </c>
+      <c r="H33">
+        <v>107</v>
+      </c>
+      <c r="J33" s="24">
+        <v>43939</v>
+      </c>
+      <c r="K33">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="24">
-        <v>43894.921539351853</v>
+        <v>43894</v>
       </c>
       <c r="B34">
         <v>44</v>
@@ -15081,10 +18409,22 @@
       <c r="E34">
         <v>12</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G34" s="24">
+        <v>43894</v>
+      </c>
+      <c r="H34">
+        <v>100</v>
+      </c>
+      <c r="J34" s="24">
+        <v>43941</v>
+      </c>
+      <c r="K34">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="24">
-        <v>43895.96707175926</v>
+        <v>43895</v>
       </c>
       <c r="B35">
         <v>61</v>
@@ -15095,10 +18435,22 @@
       <c r="E35">
         <v>20</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G35" s="24">
+        <v>43895</v>
+      </c>
+      <c r="H35">
+        <v>83</v>
+      </c>
+      <c r="J35" s="24">
+        <v>43942</v>
+      </c>
+      <c r="K35">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="24">
-        <v>43896.950312499997</v>
+        <v>43896</v>
       </c>
       <c r="B36">
         <v>46</v>
@@ -15109,10 +18461,22 @@
       <c r="E36">
         <v>18</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G36" s="24">
+        <v>43896</v>
+      </c>
+      <c r="H36">
+        <v>112</v>
+      </c>
+      <c r="J36" s="24">
+        <v>43943</v>
+      </c>
+      <c r="K36">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="24">
-        <v>43897.858263888891</v>
+        <v>43897</v>
       </c>
       <c r="B37">
         <v>53</v>
@@ -15123,10 +18487,22 @@
       <c r="E37">
         <v>17</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G37" s="24">
+        <v>43897</v>
+      </c>
+      <c r="H37">
+        <v>122</v>
+      </c>
+      <c r="J37" s="24">
+        <v>43944</v>
+      </c>
+      <c r="K37">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="24">
-        <v>43898.927453703705</v>
+        <v>43898</v>
       </c>
       <c r="B38">
         <v>41</v>
@@ -15137,13 +18513,25 @@
       <c r="E38">
         <v>14</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G38" s="24">
+        <v>43898</v>
+      </c>
+      <c r="H38">
+        <v>145</v>
+      </c>
+      <c r="J38" s="24">
+        <v>43945</v>
+      </c>
+      <c r="K38">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="24">
-        <v>43899.992534722223</v>
+        <v>43899</v>
       </c>
       <c r="B39">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D39" s="24">
         <v>43931</v>
@@ -15151,13 +18539,25 @@
       <c r="E39">
         <v>7</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G39" s="24">
+        <v>43899</v>
+      </c>
+      <c r="H39">
+        <v>220</v>
+      </c>
+      <c r="J39" s="24">
+        <v>43946</v>
+      </c>
+      <c r="K39">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="24">
-        <v>43900.968541666669</v>
+        <v>43900</v>
       </c>
       <c r="B40">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D40" s="24">
         <v>43932</v>
@@ -15165,13 +18565,25 @@
       <c r="E40">
         <v>7</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G40" s="24">
+        <v>43900</v>
+      </c>
+      <c r="H40">
+        <v>304</v>
+      </c>
+      <c r="J40" s="24">
+        <v>43947</v>
+      </c>
+      <c r="K40">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="24">
-        <v>43901.990567129629</v>
+        <v>43901</v>
       </c>
       <c r="B41">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D41" s="24">
         <v>43933</v>
@@ -15179,13 +18591,25 @@
       <c r="E41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G41" s="24">
+        <v>43901</v>
+      </c>
+      <c r="H41">
+        <v>581</v>
+      </c>
+      <c r="J41" s="24">
+        <v>43948</v>
+      </c>
+      <c r="K41">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="24">
-        <v>43902.988194444442</v>
+        <v>43902</v>
       </c>
       <c r="B42">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="D42" s="24">
         <v>43934</v>
@@ -15193,10 +18617,22 @@
       <c r="E42">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G42" s="24">
+        <v>43902</v>
+      </c>
+      <c r="H42">
+        <v>1008</v>
+      </c>
+      <c r="J42" s="24">
+        <v>43949</v>
+      </c>
+      <c r="K42">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="24">
-        <v>43903.99722222222</v>
+        <v>43903</v>
       </c>
       <c r="B43">
         <v>185</v>
@@ -15207,13 +18643,25 @@
       <c r="E43">
         <v>17</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G43" s="24">
+        <v>43903</v>
+      </c>
+      <c r="H43">
+        <v>1007</v>
+      </c>
+      <c r="J43" s="24">
+        <v>43950</v>
+      </c>
+      <c r="K43">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="24">
-        <v>43904.97996527778</v>
+        <v>43904</v>
       </c>
       <c r="B44">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D44" s="24">
         <v>43936</v>
@@ -15221,13 +18669,25 @@
       <c r="E44">
         <v>17</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G44" s="24">
+        <v>43904</v>
+      </c>
+      <c r="H44">
+        <v>1009</v>
+      </c>
+      <c r="J44" s="24">
+        <v>43951</v>
+      </c>
+      <c r="K44">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="24">
-        <v>43905.979201388887</v>
+        <v>43905</v>
       </c>
       <c r="B45">
-        <v>124</v>
+        <v>1</v>
       </c>
       <c r="D45" s="24">
         <v>43937</v>
@@ -15235,13 +18695,25 @@
       <c r="E45">
         <v>22</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G45" s="24">
+        <v>43905</v>
+      </c>
+      <c r="H45">
+        <v>1000</v>
+      </c>
+      <c r="J45" s="24">
+        <v>43953</v>
+      </c>
+      <c r="K45">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="24">
-        <v>43906.995925925927</v>
+        <v>43906</v>
       </c>
       <c r="B46">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D46" s="24">
         <v>43938</v>
@@ -15249,10 +18721,22 @@
       <c r="E46">
         <v>28</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G46" s="24">
+        <v>43906</v>
+      </c>
+      <c r="H46">
+        <v>1017</v>
+      </c>
+      <c r="J46" s="24">
+        <v>43954</v>
+      </c>
+      <c r="K46">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="24">
-        <v>43907.994606481479</v>
+        <v>43907</v>
       </c>
       <c r="B47">
         <v>240</v>
@@ -15263,10 +18747,22 @@
       <c r="E47">
         <v>14</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G47" s="24">
+        <v>43907</v>
+      </c>
+      <c r="H47">
+        <v>1018</v>
+      </c>
+      <c r="J47" s="24">
+        <v>43955</v>
+      </c>
+      <c r="K47">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="24">
-        <v>43908.991990740738</v>
+        <v>43908</v>
       </c>
       <c r="B48">
         <v>220</v>
@@ -15277,10 +18773,22 @@
       <c r="E48">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G48" s="24">
+        <v>43908</v>
+      </c>
+      <c r="H48">
+        <v>1016</v>
+      </c>
+      <c r="J48" s="24">
+        <v>43956</v>
+      </c>
+      <c r="K48">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="24">
-        <v>43909.993171296293</v>
+        <v>43909</v>
       </c>
       <c r="B49">
         <v>186</v>
@@ -15291,10 +18799,22 @@
       <c r="E49">
         <v>17</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G49" s="24">
+        <v>43909</v>
+      </c>
+      <c r="H49">
+        <v>1016</v>
+      </c>
+      <c r="J49" s="24">
+        <v>43957</v>
+      </c>
+      <c r="K49">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="24">
-        <v>43910.989212962966</v>
+        <v>43910</v>
       </c>
       <c r="B50">
         <v>162</v>
@@ -15305,10 +18825,22 @@
       <c r="E50">
         <v>14</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G50" s="24">
+        <v>43910</v>
+      </c>
+      <c r="H50">
+        <v>1014</v>
+      </c>
+      <c r="J50" s="24">
+        <v>43958</v>
+      </c>
+      <c r="K50">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="24">
-        <v>43911.987569444442</v>
+        <v>43911</v>
       </c>
       <c r="B51">
         <v>98</v>
@@ -15319,10 +18851,22 @@
       <c r="E51">
         <v>18</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G51" s="24">
+        <v>43911</v>
+      </c>
+      <c r="H51">
+        <v>1011</v>
+      </c>
+      <c r="J51" s="24">
+        <v>43959</v>
+      </c>
+      <c r="K51">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="24">
-        <v>43912.973819444444</v>
+        <v>43912</v>
       </c>
       <c r="B52">
         <v>98</v>
@@ -15333,13 +18877,25 @@
       <c r="E52">
         <v>23</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G52" s="24">
+        <v>43912</v>
+      </c>
+      <c r="H52">
+        <v>1010</v>
+      </c>
+      <c r="J52" s="24">
+        <v>43960</v>
+      </c>
+      <c r="K52">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="24">
-        <v>43913.998611111114</v>
+        <v>43913</v>
       </c>
       <c r="B53">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D53" s="24">
         <v>43945</v>
@@ -15347,13 +18903,25 @@
       <c r="E53">
         <v>14</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G53" s="24">
+        <v>43913</v>
+      </c>
+      <c r="H53">
+        <v>1011</v>
+      </c>
+      <c r="J53" s="24">
+        <v>43961</v>
+      </c>
+      <c r="K53">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="24">
-        <v>43914.997442129628</v>
+        <v>43914</v>
       </c>
       <c r="B54">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D54" s="24">
         <v>43946</v>
@@ -15361,10 +18929,22 @@
       <c r="E54">
         <v>7</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G54" s="24">
+        <v>43914</v>
+      </c>
+      <c r="H54">
+        <v>1009</v>
+      </c>
+      <c r="J54" s="24">
+        <v>43962</v>
+      </c>
+      <c r="K54">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="24">
-        <v>43915.988599537035</v>
+        <v>43915</v>
       </c>
       <c r="B55">
         <v>145</v>
@@ -15375,10 +18955,22 @@
       <c r="E55">
         <v>7</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G55" s="24">
+        <v>43915</v>
+      </c>
+      <c r="H55">
+        <v>1010</v>
+      </c>
+      <c r="J55" s="24">
+        <v>43963</v>
+      </c>
+      <c r="K55">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="24">
-        <v>43916.992326388892</v>
+        <v>43916</v>
       </c>
       <c r="B56">
         <v>144</v>
@@ -15389,13 +18981,25 @@
       <c r="E56">
         <v>19</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G56" s="24">
+        <v>43916</v>
+      </c>
+      <c r="H56">
+        <v>11</v>
+      </c>
+      <c r="J56" s="24">
+        <v>43965</v>
+      </c>
+      <c r="K56">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="24">
-        <v>43917.992546296293</v>
+        <v>43917</v>
       </c>
       <c r="B57">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D57" s="24">
         <v>43949</v>
@@ -15403,13 +19007,25 @@
       <c r="E57">
         <v>36</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G57" s="24">
+        <v>43917</v>
+      </c>
+      <c r="H57">
+        <v>1027</v>
+      </c>
+      <c r="J57" s="24">
+        <v>43966</v>
+      </c>
+      <c r="K57">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="24">
-        <v>43918.982627314814</v>
+        <v>43918</v>
       </c>
       <c r="B58">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D58" s="24">
         <v>43950</v>
@@ -15417,13 +19033,25 @@
       <c r="E58">
         <v>40</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G58" s="24">
+        <v>43918</v>
+      </c>
+      <c r="H58">
+        <v>1018</v>
+      </c>
+      <c r="J58" s="24">
+        <v>43967</v>
+      </c>
+      <c r="K58">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="24">
-        <v>43919.982187499998</v>
+        <v>43919</v>
       </c>
       <c r="B59">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="D59" s="24">
         <v>43951</v>
@@ -15431,10 +19059,22 @@
       <c r="E59">
         <v>13</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G59" s="24">
+        <v>43919</v>
+      </c>
+      <c r="H59">
+        <v>1016</v>
+      </c>
+      <c r="J59" s="24">
+        <v>43968</v>
+      </c>
+      <c r="K59">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="24">
-        <v>43920.967256944445</v>
+        <v>43920</v>
       </c>
       <c r="B60">
         <v>121</v>
@@ -15445,10 +19085,22 @@
       <c r="E60">
         <v>17</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G60" s="24">
+        <v>43920</v>
+      </c>
+      <c r="H60">
+        <v>1013</v>
+      </c>
+      <c r="J60" s="24">
+        <v>43969</v>
+      </c>
+      <c r="K60">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="24">
-        <v>43921.980393518519</v>
+        <v>43921</v>
       </c>
       <c r="B61">
         <v>115</v>
@@ -15459,10 +19111,22 @@
       <c r="E61">
         <v>8</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G61" s="24">
+        <v>43921</v>
+      </c>
+      <c r="H61">
+        <v>1018</v>
+      </c>
+      <c r="J61" s="24">
+        <v>43970</v>
+      </c>
+      <c r="K61">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="24">
-        <v>43922.998518518521</v>
+        <v>43922</v>
       </c>
       <c r="B62">
         <v>104</v>
@@ -15473,10 +19137,22 @@
       <c r="E62">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G62" s="24">
+        <v>43922</v>
+      </c>
+      <c r="H62">
+        <v>1016</v>
+      </c>
+      <c r="J62" s="24">
+        <v>43971</v>
+      </c>
+      <c r="K62">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="24">
-        <v>43923.986886574072</v>
+        <v>43923</v>
       </c>
       <c r="B63">
         <v>120</v>
@@ -15487,13 +19163,25 @@
       <c r="E63">
         <v>16</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G63" s="24">
+        <v>43923</v>
+      </c>
+      <c r="H63">
+        <v>1019</v>
+      </c>
+      <c r="J63" s="24">
+        <v>43972</v>
+      </c>
+      <c r="K63">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="24">
-        <v>43924.985578703701</v>
+        <v>43924</v>
       </c>
       <c r="B64">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D64" s="24">
         <v>43956</v>
@@ -15501,10 +19189,22 @@
       <c r="E64">
         <v>9</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G64" s="24">
+        <v>43924</v>
+      </c>
+      <c r="H64">
+        <v>1013</v>
+      </c>
+      <c r="J64" s="24">
+        <v>43973</v>
+      </c>
+      <c r="K64">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="24">
-        <v>43925.866331018522</v>
+        <v>43925</v>
       </c>
       <c r="B65">
         <v>77</v>
@@ -15515,13 +19215,25 @@
       <c r="E65">
         <v>24</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G65" s="24">
+        <v>43925</v>
+      </c>
+      <c r="H65">
+        <v>1011</v>
+      </c>
+      <c r="J65" s="24">
+        <v>43974</v>
+      </c>
+      <c r="K65">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="24">
-        <v>43926.980451388888</v>
+        <v>43926</v>
       </c>
       <c r="B66">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D66" s="24">
         <v>43958</v>
@@ -15529,13 +19241,25 @@
       <c r="E66">
         <v>13</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G66" s="24">
+        <v>43926</v>
+      </c>
+      <c r="H66">
+        <v>1017</v>
+      </c>
+      <c r="J66" s="24">
+        <v>43975</v>
+      </c>
+      <c r="K66">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="24">
-        <v>43927.983171296299</v>
+        <v>43927</v>
       </c>
       <c r="B67">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D67" s="24">
         <v>43959</v>
@@ -15543,10 +19267,22 @@
       <c r="E67">
         <v>11</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G67" s="24">
+        <v>43927</v>
+      </c>
+      <c r="H67">
+        <v>1024</v>
+      </c>
+      <c r="J67" s="24">
+        <v>43977</v>
+      </c>
+      <c r="K67">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="24">
-        <v>43928.973495370374</v>
+        <v>43928</v>
       </c>
       <c r="B68">
         <v>102</v>
@@ -15557,10 +19293,22 @@
       <c r="E68">
         <v>8</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G68" s="24">
+        <v>43928</v>
+      </c>
+      <c r="H68">
+        <v>12</v>
+      </c>
+      <c r="J68" s="24">
+        <v>43978</v>
+      </c>
+      <c r="K68">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="24">
-        <v>43929.999652777777</v>
+        <v>43929</v>
       </c>
       <c r="B69">
         <v>119</v>
@@ -15571,10 +19319,22 @@
       <c r="E69">
         <v>5</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G69" s="24">
+        <v>43929</v>
+      </c>
+      <c r="H69">
+        <v>1017</v>
+      </c>
+      <c r="J69" s="24">
+        <v>43979</v>
+      </c>
+      <c r="K69">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="24">
-        <v>43930.992442129631</v>
+        <v>43930</v>
       </c>
       <c r="B70">
         <v>81</v>
@@ -15585,13 +19345,25 @@
       <c r="E70">
         <v>9</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G70" s="24">
+        <v>43930</v>
+      </c>
+      <c r="H70">
+        <v>1009</v>
+      </c>
+      <c r="J70" s="24">
+        <v>43980</v>
+      </c>
+      <c r="K70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="24">
-        <v>43931.928020833337</v>
+        <v>43931</v>
       </c>
       <c r="B71">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D71" s="24">
         <v>43963</v>
@@ -15599,13 +19371,19 @@
       <c r="E71">
         <v>29</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G71" s="24">
+        <v>43931</v>
+      </c>
+      <c r="H71">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="24">
-        <v>43932.948240740741</v>
+        <v>43932</v>
       </c>
       <c r="B72">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D72" s="24">
         <v>43964</v>
@@ -15613,10 +19391,16 @@
       <c r="E72">
         <v>18</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G72" s="24">
+        <v>43932</v>
+      </c>
+      <c r="H72">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="24">
-        <v>43933.988287037035</v>
+        <v>43933</v>
       </c>
       <c r="B73">
         <v>80</v>
@@ -15627,13 +19411,19 @@
       <c r="E73">
         <v>14</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G73" s="24">
+        <v>43933</v>
+      </c>
+      <c r="H73">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="24">
-        <v>43934.993877314817</v>
+        <v>43934</v>
       </c>
       <c r="B74">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D74" s="24">
         <v>43966</v>
@@ -15641,13 +19431,19 @@
       <c r="E74">
         <v>12</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G74" s="24">
+        <v>43934</v>
+      </c>
+      <c r="H74">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="24">
-        <v>43935.983368055553</v>
+        <v>43935</v>
       </c>
       <c r="B75">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D75" s="24">
         <v>43967</v>
@@ -15655,10 +19451,16 @@
       <c r="E75">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G75" s="24">
+        <v>43935</v>
+      </c>
+      <c r="H75">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="24">
-        <v>43936.968611111108</v>
+        <v>43936</v>
       </c>
       <c r="B76">
         <v>105</v>
@@ -15669,10 +19471,16 @@
       <c r="E76">
         <v>2</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G76" s="24">
+        <v>43936</v>
+      </c>
+      <c r="H76">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="24">
-        <v>43937.973078703704</v>
+        <v>43937</v>
       </c>
       <c r="B77">
         <v>102</v>
@@ -15683,13 +19491,19 @@
       <c r="E77">
         <v>11</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G77" s="24">
+        <v>43937</v>
+      </c>
+      <c r="H77">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="24">
-        <v>43938.984548611108</v>
+        <v>43938</v>
       </c>
       <c r="B78">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D78" s="24">
         <v>43970</v>
@@ -15697,13 +19511,19 @@
       <c r="E78">
         <v>2</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G78" s="24">
+        <v>43938</v>
+      </c>
+      <c r="H78">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="24">
-        <v>43939.992974537039</v>
+        <v>43939</v>
       </c>
       <c r="B79">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D79" s="24">
         <v>43971</v>
@@ -15711,10 +19531,16 @@
       <c r="E79">
         <v>14</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G79" s="24">
+        <v>43939</v>
+      </c>
+      <c r="H79">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="24">
-        <v>43940.982268518521</v>
+        <v>43940</v>
       </c>
       <c r="B80">
         <v>80</v>
@@ -15725,10 +19551,16 @@
       <c r="E80">
         <v>14</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G80" s="24">
+        <v>43940</v>
+      </c>
+      <c r="H80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="24">
-        <v>43941.994155092594</v>
+        <v>43941</v>
       </c>
       <c r="B81">
         <v>119</v>
@@ -15739,13 +19571,19 @@
       <c r="E81">
         <v>9</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G81" s="24">
+        <v>43941</v>
+      </c>
+      <c r="H81">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="24">
-        <v>43942.992534722223</v>
+        <v>43942</v>
       </c>
       <c r="B82">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D82" s="24">
         <v>43974</v>
@@ -15753,10 +19591,16 @@
       <c r="E82">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G82" s="24">
+        <v>43942</v>
+      </c>
+      <c r="H82">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="24">
-        <v>43943.984710648147</v>
+        <v>43943</v>
       </c>
       <c r="B83">
         <v>101</v>
@@ -15767,10 +19611,16 @@
       <c r="E83">
         <v>2</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G83" s="24">
+        <v>43943</v>
+      </c>
+      <c r="H83">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="24">
-        <v>43944.963692129626</v>
+        <v>43944</v>
       </c>
       <c r="B84">
         <v>85</v>
@@ -15781,10 +19631,16 @@
       <c r="E84">
         <v>5</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G84" s="24">
+        <v>43944</v>
+      </c>
+      <c r="H84">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="24">
-        <v>43945.983726851853</v>
+        <v>43945</v>
       </c>
       <c r="B85">
         <v>88</v>
@@ -15795,13 +19651,19 @@
       <c r="E85">
         <v>20</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G85" s="24">
+        <v>43945</v>
+      </c>
+      <c r="H85">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="24">
-        <v>43946.980520833335</v>
+        <v>43946</v>
       </c>
       <c r="B86">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D86" s="24">
         <v>43978</v>
@@ -15809,13 +19671,19 @@
       <c r="E86">
         <v>11</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G86" s="24">
+        <v>43946</v>
+      </c>
+      <c r="H86">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="24">
-        <v>43947.867824074077</v>
+        <v>43947</v>
       </c>
       <c r="B87">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D87" s="24">
         <v>43979</v>
@@ -15823,13 +19691,19 @@
       <c r="E87">
         <v>7</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G87" s="24">
+        <v>43947</v>
+      </c>
+      <c r="H87">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="24">
-        <v>43948.95548611111</v>
+        <v>43948</v>
       </c>
       <c r="B88">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D88" s="24">
         <v>43980</v>
@@ -15837,13 +19711,19 @@
       <c r="E88">
         <v>9</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G88" s="24">
+        <v>43948</v>
+      </c>
+      <c r="H88">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="24">
-        <v>43949.994351851848</v>
+        <v>43949</v>
       </c>
       <c r="B89">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D89" s="24">
         <v>43981</v>
@@ -15851,13 +19731,19 @@
       <c r="E89">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G89" s="24">
+        <v>43949</v>
+      </c>
+      <c r="H89">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="24">
-        <v>43950.999166666668</v>
+        <v>43950</v>
       </c>
       <c r="B90">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D90" s="24">
         <v>43982</v>
@@ -15865,10 +19751,16 @@
       <c r="E90">
         <v>3</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G90" s="24">
+        <v>43950</v>
+      </c>
+      <c r="H90">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="24">
-        <v>43951.975995370369</v>
+        <v>43951</v>
       </c>
       <c r="B91">
         <v>89</v>
@@ -15879,10 +19771,16 @@
       <c r="E91">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G91" s="24">
+        <v>43951</v>
+      </c>
+      <c r="H91">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="24">
-        <v>43952.969340277778</v>
+        <v>43952</v>
       </c>
       <c r="B92">
         <v>84</v>
@@ -15893,13 +19791,19 @@
       <c r="E92">
         <v>4</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G92" s="24">
+        <v>43952</v>
+      </c>
+      <c r="H92">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="24">
-        <v>43953.995381944442</v>
+        <v>43953</v>
       </c>
       <c r="B93">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D93" s="24">
         <v>43985</v>
@@ -15907,13 +19811,19 @@
       <c r="E93">
         <v>8</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G93" s="24">
+        <v>43953</v>
+      </c>
+      <c r="H93">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="24">
-        <v>43954.989918981482</v>
+        <v>43954</v>
       </c>
       <c r="B94">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D94" s="24">
         <v>43986</v>
@@ -15921,13 +19831,19 @@
       <c r="E94">
         <v>6</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G94" s="24">
+        <v>43954</v>
+      </c>
+      <c r="H94">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="24">
-        <v>43955.996793981481</v>
+        <v>43955</v>
       </c>
       <c r="B95">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D95" s="24">
         <v>43987</v>
@@ -15935,13 +19851,19 @@
       <c r="E95">
         <v>4</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G95" s="24">
+        <v>43955</v>
+      </c>
+      <c r="H95">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="24">
-        <v>43956.983113425929</v>
+        <v>43956</v>
       </c>
       <c r="B96">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D96" s="24">
         <v>43988</v>
@@ -15949,13 +19871,19 @@
       <c r="E96">
         <v>2</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G96" s="24">
+        <v>43956</v>
+      </c>
+      <c r="H96">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="24">
-        <v>43957.998692129629</v>
+        <v>43957</v>
       </c>
       <c r="B97">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D97" s="24">
         <v>43989</v>
@@ -15963,10 +19891,16 @@
       <c r="E97">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G97" s="24">
+        <v>43957</v>
+      </c>
+      <c r="H97">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="24">
-        <v>43958.995011574072</v>
+        <v>43958</v>
       </c>
       <c r="B98">
         <v>94</v>
@@ -15977,13 +19911,19 @@
       <c r="E98">
         <v>9</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G98" s="24">
+        <v>43958</v>
+      </c>
+      <c r="H98">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="24">
-        <v>43959.977326388886</v>
+        <v>43959</v>
       </c>
       <c r="B99">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D99" s="24">
         <v>43991</v>
@@ -15991,13 +19931,19 @@
       <c r="E99">
         <v>4</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G99" s="24">
+        <v>43959</v>
+      </c>
+      <c r="H99">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="24">
-        <v>43960.99417824074</v>
+        <v>43960</v>
       </c>
       <c r="B100">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D100" s="24">
         <v>43992</v>
@@ -16005,13 +19951,19 @@
       <c r="E100">
         <v>9</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G100" s="24">
+        <v>43960</v>
+      </c>
+      <c r="H100">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="24">
-        <v>43961.996666666666</v>
+        <v>43961</v>
       </c>
       <c r="B101">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D101" s="24">
         <v>43993</v>
@@ -16019,10 +19971,16 @@
       <c r="E101">
         <v>5</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G101" s="24">
+        <v>43961</v>
+      </c>
+      <c r="H101">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="24">
-        <v>43962.982731481483</v>
+        <v>43962</v>
       </c>
       <c r="B102">
         <v>89</v>
@@ -16033,13 +19991,19 @@
       <c r="E102">
         <v>9</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G102" s="24">
+        <v>43962</v>
+      </c>
+      <c r="H102">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="24">
-        <v>43963.956076388888</v>
+        <v>43963</v>
       </c>
       <c r="B103">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D103" s="24">
         <v>43995</v>
@@ -16047,10 +20011,16 @@
       <c r="E103">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G103" s="24">
+        <v>43963</v>
+      </c>
+      <c r="H103">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="24">
-        <v>43964.947858796295</v>
+        <v>43964</v>
       </c>
       <c r="B104">
         <v>86</v>
@@ -16061,13 +20031,19 @@
       <c r="E104">
         <v>4</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G104" s="24">
+        <v>43964</v>
+      </c>
+      <c r="H104">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="24">
-        <v>43965.853842592594</v>
+        <v>43965</v>
       </c>
       <c r="B105">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D105" s="24">
         <v>43997</v>
@@ -16075,13 +20051,19 @@
       <c r="E105">
         <v>5</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G105" s="24">
+        <v>43965</v>
+      </c>
+      <c r="H105">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="24">
-        <v>43966.965277777781</v>
+        <v>43966</v>
       </c>
       <c r="B106">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D106" s="24">
         <v>43998</v>
@@ -16089,13 +20071,19 @@
       <c r="E106">
         <v>6</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G106" s="24">
+        <v>43966</v>
+      </c>
+      <c r="H106">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="24">
-        <v>43967.851203703707</v>
+        <v>43967</v>
       </c>
       <c r="B107">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D107" s="24">
         <v>43999</v>
@@ -16103,13 +20091,19 @@
       <c r="E107">
         <v>3</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G107" s="24">
+        <v>43967</v>
+      </c>
+      <c r="H107">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="24">
-        <v>43968.911111111112</v>
+        <v>43968</v>
       </c>
       <c r="B108">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D108" s="24">
         <v>44000</v>
@@ -16117,10 +20111,16 @@
       <c r="E108">
         <v>3</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G108" s="24">
+        <v>43968</v>
+      </c>
+      <c r="H108">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="24">
-        <v>43969.994826388887</v>
+        <v>43969</v>
       </c>
       <c r="B109">
         <v>100</v>
@@ -16131,13 +20131,19 @@
       <c r="E109">
         <v>4</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G109" s="24">
+        <v>43969</v>
+      </c>
+      <c r="H109">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="24">
-        <v>43970.994108796294</v>
+        <v>43970</v>
       </c>
       <c r="B110">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D110" s="24">
         <v>44003</v>
@@ -16145,10 +20151,16 @@
       <c r="E110">
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G110" s="24">
+        <v>43970</v>
+      </c>
+      <c r="H110">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="24">
-        <v>43971.989675925928</v>
+        <v>43971</v>
       </c>
       <c r="B111">
         <v>100</v>
@@ -16159,10 +20171,16 @@
       <c r="E111">
         <v>2</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G111" s="24">
+        <v>43971</v>
+      </c>
+      <c r="H111">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="24">
-        <v>43972.996180555558</v>
+        <v>43972</v>
       </c>
       <c r="B112">
         <v>101</v>
@@ -16173,13 +20191,19 @@
       <c r="E112">
         <v>7</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G112" s="24">
+        <v>43972</v>
+      </c>
+      <c r="H112">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="24">
-        <v>43973.95784722222</v>
+        <v>43973</v>
       </c>
       <c r="B113">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D113" s="24">
         <v>44006</v>
@@ -16187,10 +20211,16 @@
       <c r="E113">
         <v>2</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G113" s="24">
+        <v>43973</v>
+      </c>
+      <c r="H113">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="24">
-        <v>43974.99459490741</v>
+        <v>43974</v>
       </c>
       <c r="B114">
         <v>56</v>
@@ -16201,10 +20231,16 @@
       <c r="E114">
         <v>12</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G114" s="24">
+        <v>43974</v>
+      </c>
+      <c r="H114">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="24">
-        <v>43975.993877314817</v>
+        <v>43975</v>
       </c>
       <c r="B115">
         <v>50</v>
@@ -16215,10 +20251,16 @@
       <c r="E115">
         <v>4</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G115" s="24">
+        <v>43975</v>
+      </c>
+      <c r="H115">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="24">
-        <v>43976.944409722222</v>
+        <v>43976</v>
       </c>
       <c r="B116">
         <v>65</v>
@@ -16229,10 +20271,16 @@
       <c r="E116">
         <v>1</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G116" s="24">
+        <v>43976</v>
+      </c>
+      <c r="H116">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="24">
-        <v>43977.990011574075</v>
+        <v>43977</v>
       </c>
       <c r="B117">
         <v>86</v>
@@ -16243,10 +20291,16 @@
       <c r="E117">
         <v>11</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G117" s="24">
+        <v>43977</v>
+      </c>
+      <c r="H117">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="24">
-        <v>43978.98369212963</v>
+        <v>43978</v>
       </c>
       <c r="B118">
         <v>81</v>
@@ -16257,10 +20311,16 @@
       <c r="E118">
         <v>9</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G118" s="24">
+        <v>43978</v>
+      </c>
+      <c r="H118">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="24">
-        <v>43979.980949074074</v>
+        <v>43979</v>
       </c>
       <c r="B119">
         <v>78</v>
@@ -16271,13 +20331,19 @@
       <c r="E119">
         <v>4</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G119" s="24">
+        <v>43979</v>
+      </c>
+      <c r="H119">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="24">
-        <v>43980.982847222222</v>
+        <v>43980</v>
       </c>
       <c r="B120">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D120" s="24">
         <v>44014</v>
@@ -16285,10 +20351,16 @@
       <c r="E120">
         <v>9</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G120" s="24">
+        <v>43980</v>
+      </c>
+      <c r="H120">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="24">
-        <v>43981.982743055552</v>
+        <v>43981</v>
       </c>
       <c r="B121">
         <v>52</v>
@@ -16299,8 +20371,14 @@
       <c r="E121">
         <v>12</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G121" s="24">
+        <v>43981</v>
+      </c>
+      <c r="H121">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="24">
         <v>43982.954872685186</v>
       </c>
@@ -16314,7 +20392,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="24">
         <v>43983.914224537039</v>
       </c>
@@ -16328,7 +20406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="24">
         <v>43984.949849537035</v>
       </c>
@@ -16342,7 +20420,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="24">
         <v>43985.976203703707</v>
       </c>
@@ -16356,7 +20434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="24">
         <v>43986.991886574076</v>
       </c>
@@ -16370,7 +20448,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="24">
         <v>43987.99900462963</v>
       </c>
@@ -16378,7 +20456,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="24">
         <v>43988.941284722219</v>
       </c>
@@ -16643,9 +20721,11 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="J1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
